--- a/hippocampusdataset.xlsx
+++ b/hippocampusdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boitu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655A373-6137-4E40-AC5E-6A5922DDC3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B7EC8-07F8-4A1C-A2F7-D5415830E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="110" windowWidth="10950" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="81">
   <si>
     <t>student id</t>
   </si>
@@ -43,9 +43,6 @@
     <t>05/12/2021</t>
   </si>
   <si>
-    <t>05/12/2022</t>
-  </si>
-  <si>
     <t>question 1</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>video duaratio</t>
-  </si>
-  <si>
     <t>q 1.1.1</t>
   </si>
   <si>
@@ -154,7 +148,127 @@
     <t>q 5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">q5.1.1 </t>
+    <t xml:space="preserve">NO ATTEMP </t>
+  </si>
+  <si>
+    <t>no attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>textbook</t>
+  </si>
+  <si>
+    <t>q 5.1.1</t>
+  </si>
+  <si>
+    <t>q5.1.2</t>
+  </si>
+  <si>
+    <t>q5.1.3</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>q3.1.1</t>
+  </si>
+  <si>
+    <t>q 3.1.2</t>
+  </si>
+  <si>
+    <t>q3.1.3</t>
+  </si>
+  <si>
+    <t>view_solution</t>
+  </si>
+  <si>
+    <t>q4.1.1</t>
+  </si>
+  <si>
+    <t>see explanation</t>
+  </si>
+  <si>
+    <t>video duaration for set1</t>
+  </si>
+  <si>
+    <t>duaration for q1 second attenmpt</t>
+  </si>
+  <si>
+    <t>no attemptno attempt</t>
+  </si>
+  <si>
+    <t>duaration q2,2nd attempt</t>
+  </si>
+  <si>
+    <t>duaration q3,2nd attempt</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>duaration on q5 2nd attempt</t>
+  </si>
+  <si>
+    <t>04/12/2021</t>
+  </si>
+  <si>
+    <t>duaration for 2nd attem q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>02d20h02m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17:39:07</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15:30:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16:32:07</t>
+  </si>
+  <si>
+    <t>set2 only</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11:40:07</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20:29:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14:18:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:41:00</t>
+  </si>
+  <si>
+    <t>29/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  08:47:10</t>
+  </si>
+  <si>
+    <t>3d9h24m</t>
   </si>
 </sst>
 </file>
@@ -199,12 +313,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,18 +613,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="10.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,115 +635,211 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AK1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AU1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AV1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BH1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="BI1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>36</v>
+      <c r="BN1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2425844</v>
       </c>
@@ -635,7 +847,7 @@
         <v>0.55763888888888891</v>
       </c>
       <c r="C2" s="1">
-        <v>0.55972222222222223</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D2" s="4">
         <v>0.68680555555555556</v>
@@ -643,112 +855,196 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="L2" t="s">
+        <v>57</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
+      <c r="BG2">
         <v>3</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
+      <c r="BH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2466429</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>0.74652777777777779</v>
+        <v>0.7993055555555556</v>
       </c>
       <c r="D3" s="4">
         <v>0.43124999999999997</v>
@@ -756,117 +1052,219 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3">
         <v>29</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>13</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3">
         <v>15</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AG3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT3">
         <v>13</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
+      <c r="AU3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE3">
+        <v>5</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG3">
         <v>4</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
+      <c r="BH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2387231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>0.85069444444444453</v>
+        <v>7.1527777777777787E-2</v>
       </c>
       <c r="D4" s="4">
         <v>0.52013888888888882</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5">
         <v>18</v>
       </c>
       <c r="G4">
@@ -879,77 +1277,199 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4">
         <v>16</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>13</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>33</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4">
         <v>23</v>
       </c>
-      <c r="Z4">
+      <c r="AG4">
         <v>32</v>
       </c>
-      <c r="AA4">
+      <c r="AH4">
         <v>15</v>
       </c>
-      <c r="AB4">
+      <c r="AI4">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AL4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT4">
         <v>4</v>
       </c>
-      <c r="AD4">
+      <c r="AU4">
         <v>11</v>
       </c>
-      <c r="AE4">
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
         <v>5</v>
       </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>4</v>
+      </c>
+      <c r="BB4">
+        <v>5</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG4">
+        <v>12</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>2</v>
+      </c>
+      <c r="BJ4">
+        <v>2</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL4">
+        <v>11</v>
+      </c>
+      <c r="BM4">
+        <v>7</v>
+      </c>
+      <c r="BN4">
+        <v>5</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2489211</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="1">
         <v>0.68472222222222201</v>
       </c>
@@ -957,117 +1477,1594 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>15</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>9</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2455304</v>
       </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D6" s="4">
         <v>0.53125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ6">
+        <v>17</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC6">
+        <v>3</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG6">
+        <v>7</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1849534</v>
       </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.60625000000000007</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7">
+        <v>45</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2483688</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6645833333333333</v>
+      </c>
       <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT8">
         <v>5</v>
       </c>
+      <c r="AU8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2328014</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.85138888888888897</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2431095</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.65694444444444444</v>
+      </c>
       <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10">
         <v>5</v>
       </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10">
+        <v>12</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>44</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY10">
+        <v>13</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>24</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG10">
+        <v>5</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN10">
+        <v>16</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1603806</v>
       </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.87777777777777777</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG11">
+        <v>13</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2429308</v>
       </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.6694444444444444</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>13</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC12">
+        <v>3</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG12">
+        <v>6</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2443532</v>
       </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>35</v>
+      </c>
+      <c r="T13">
         <v>5</v>
       </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF13">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT13">
+        <v>12</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG13">
+        <v>14</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2483953</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2443377</v>
       </c>
     </row>
   </sheetData>
